--- a/biology/Botanique/Adenocarpus_viscosus/Adenocarpus_viscosus.xlsx
+++ b/biology/Botanique/Adenocarpus_viscosus/Adenocarpus_viscosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adenocarpus viscosus est une espèce de plantes de la famille des Fabaceae. Elle est endémique des îles Canaries (écorégion terrestre du WWF des forêts et forêts claires arides des îles Canaries) et plus précisément des zones d'altitude de La Palma et Tenerife. On la trouve au sein des forêts de pins des Canaries mais aussi au delà de la limite des arbres, étant en particulier une des espèces dominantes de la caldeira de las Cañadas.
 </t>
@@ -511,11 +523,13 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (19 novembre 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (19 novembre 2019) :
 sous-espèce Adenocarpus viscosus subsp. spartioides (Webb &amp; Berthel.) Rivas Mart. &amp; Belmonte
-Selon Tropicos                                           (19 novembre 2019)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 novembre 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Adenocarpus viscosus subsp. spartioides (Webb &amp; Berthel.) Rivas Mart. &amp; Belmonte
 variété Adenocarpus viscosus var. frankenioides (Choisy ex DC.) Webb &amp; Berthel.
 variété Adenocarpus viscosus var. spartioides Webb &amp; Berthel.</t>
